--- a/results/I3_N5_M2_T15_C100_DepCentral_s3_res.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1179.14525608794</v>
+        <v>1081.855256086939</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5360000133514404</v>
+        <v>0.4189999103546143</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.18901356216583</v>
+        <v>26.18901356216582</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.908651757393521</v>
+        <v>6.631061613361723</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.574894282166267</v>
+        <v>2.29730413813447</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>801.7100000010014</v>
+        <v>682</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>355.58</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -598,7 +598,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,9 +609,20 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -656,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -678,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -689,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -885,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.930483257745369</v>
+        <v>6.894440469094176</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +912,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.38795072015899</v>
+        <v>11.23570364914966</v>
       </c>
     </row>
     <row r="6">
@@ -947,7 +958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -985,7 +996,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -999,7 +1010,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1013,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1021,13 +1032,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1041,7 +1052,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1055,9 +1066,23 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>132.5200000000551</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1171,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>143.764999999963</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1182,7 +1207,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>134.9399999999374</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1193,7 +1218,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>139.9649999999701</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1204,7 +1229,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>138.1300000000612</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1215,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>78.51000000000569</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
@@ -1226,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>89.96500000000745</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -1237,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>78.14499999997555</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -1248,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>86.69499999991137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -1259,7 +1284,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>82.95500000000722</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1270,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>143.6400000000868</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
@@ -1281,7 +1306,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>133.8550000000906</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
@@ -1292,7 +1317,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>143.2950000000877</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
@@ -1303,7 +1328,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>144.6100000000845</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21">
@@ -1314,7 +1339,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>146.1349999999104</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22">
@@ -1325,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>98.04000000003727</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
@@ -1336,7 +1361,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>95.13000000004104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
@@ -1347,7 +1372,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>100.9</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25">
@@ -1358,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>106.4350000000358</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -1369,7 +1394,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>104.8699999999463</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
@@ -1380,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>36.35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
@@ -1391,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>32.46500000000378</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
@@ -1402,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>34.61000000000422</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
@@ -1413,7 +1438,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>41.73500000000422</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31">
@@ -1424,7 +1449,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.29500000000371</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
@@ -1435,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>143.6400000001139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1471,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>133.8550000001191</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34">
@@ -1457,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>143.2950000001232</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35">
@@ -1468,7 +1493,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>144.6100000001219</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36">
@@ -1479,7 +1504,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>146.1349999999444</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37">
@@ -1490,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>132.5200000000896</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38">
@@ -1501,7 +1526,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>143.7649999999308</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
@@ -1512,7 +1537,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>134.9399999999642</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40">
@@ -1523,7 +1548,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>139.9650000000056</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
@@ -1534,7 +1559,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>138.1300000000938</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1581,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>43.64000000011322</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1592,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>33.85500000011837</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1603,7 +1628,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>43.29500000012251</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -1614,7 +1639,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>44.6100000001212</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -1625,7 +1650,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>46.13499999994372</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -1636,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>32.52000000008911</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1647,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>43.76499999993041</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1658,7 +1683,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>34.93999999996367</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1669,7 +1694,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>39.96500000000515</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1680,7 +1705,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>38.13000000009333</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1727,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1738,7 +1763,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1749,7 +1774,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1760,7 +1785,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1771,7 +1796,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1782,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1793,7 +1818,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.895</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1804,7 +1829,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.985</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1815,7 +1840,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1826,7 +1851,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.585</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1892,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>5.63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1903,7 +1928,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>13.54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1914,7 +1939,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>14.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1925,7 +1950,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1936,7 +1961,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.01</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1947,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>9.625</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -1958,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>12.98</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -1969,7 +1994,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -1980,7 +2005,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>13.585</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -1991,7 +2016,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>8.205</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2032,7 +2057,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2043,7 +2068,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2054,7 +2079,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2065,7 +2090,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2076,7 +2101,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2145,7 +2170,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
